--- a/docs/classes.xlsx
+++ b/docs/classes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>User</t>
   </si>
@@ -48,9 +48,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>contractor</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>offer_id</t>
+  </si>
+  <si>
+    <t>owner_id</t>
   </si>
 </sst>
 </file>
@@ -432,9 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -454,30 +459,30 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -488,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -505,13 +510,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,17 +546,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
